--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,62 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +539,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -638,7 +582,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -661,9 +605,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 10, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 10, 2025</t>
+          <t>November 11, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 11, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>COMM-005</t>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>COMM-006</t>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>COMM-007</t>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>COMM-008</t>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>COMM-009</t>
@@ -1465,7 +1465,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>COMM-010</t>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>COMM-011</t>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>COMM-012</t>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>COMM-013</t>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>COMM-014</t>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>COMM-015</t>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>COMM-016</t>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>COMM-017</t>
@@ -2121,7 +2121,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>COMM-018</t>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>COMM-019</t>
@@ -2285,7 +2285,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>COMM-020</t>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/communication-plan.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Comm Plan'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Comm Plan'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,26 +32,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="005D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Segoe UI Semibold"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -62,12 +93,36 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -88,13 +143,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
     <border>
       <left style="thin"/>
@@ -106,23 +189,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -207,10 +332,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -523,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,83 +656,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Communication Plan</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Delivery Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Sample Solution</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Data table for communication plan</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -618,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -648,1720 +797,1720 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Communication ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>Communication Type</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Audience</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="19" t="inlineStr">
         <is>
           <t>Format</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="19" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="19" t="inlineStr">
         <is>
           <t>Distribution Method</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="19" t="inlineStr">
         <is>
           <t>Meeting Duration</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Agenda Topics</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Key Stakeholders</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="19" t="inlineStr">
         <is>
           <t>Escalation Level</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="19" t="inlineStr">
         <is>
           <t>Success Metrics</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="19" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="19" t="inlineStr">
         <is>
           <t>Next Scheduled</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="19" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>COMM-001</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Status Report</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Executive Sponsors</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>High-level project status and key decisions</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
         <is>
           <t>Email Report</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>Email distribution list</t>
         </is>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="20" t="n">
         <v/>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="20" t="inlineStr">
         <is>
           <t>Project health, milestones, risks, decisions needed</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="20" t="inlineStr">
         <is>
           <t>Executive Sponsor and Business Director</t>
         </is>
       </c>
-      <c r="L2" s="6" t="inlineStr">
+      <c r="L2" s="20" t="inlineStr">
         <is>
           <t>Executive</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="20" t="inlineStr">
         <is>
           <t>Report delivered on time and decisions made</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="N2" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O2" s="6" t="inlineStr">
+      <c r="O2" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P2" s="6" t="inlineStr">
+      <c r="P2" s="20" t="inlineStr">
         <is>
           <t>Executive summary format with dashboard</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>COMM-002</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>Steering Committee</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>Project Steering Committee</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>Strategic direction and issue resolution</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="21" t="inlineStr">
         <is>
           <t>In-Person Meeting</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="21" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="H3" s="21" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>60 minutes</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="21" t="inlineStr">
         <is>
           <t>Strategic decisions, major risks, budget, timeline</t>
         </is>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="K3" s="21" t="inlineStr">
         <is>
           <t>Executive Sponsor and Department Heads</t>
         </is>
       </c>
-      <c r="L3" s="7" t="inlineStr">
+      <c r="L3" s="21" t="inlineStr">
         <is>
           <t>Strategic</t>
         </is>
       </c>
-      <c r="M3" s="7" t="inlineStr">
+      <c r="M3" s="21" t="inlineStr">
         <is>
           <t>Meeting attendance &gt;80% and decisions documented</t>
         </is>
       </c>
-      <c r="N3" s="7" t="inlineStr">
+      <c r="N3" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O3" s="7" t="inlineStr">
+      <c r="O3" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P3" s="7" t="inlineStr">
+      <c r="P3" s="21" t="inlineStr">
         <is>
           <t>Decision-making authority for scope and budget</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>COMM-003</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Team Standup</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>Core Project Team</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>Daily coordination and impediment removal</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
         <is>
           <t>Virtual Meeting</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="20" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t>Video conference</t>
         </is>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
         <is>
           <t>15 minutes</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>Yesterday's progress, today's plan, blockers</t>
         </is>
       </c>
-      <c r="K4" s="6" t="inlineStr">
+      <c r="K4" s="20" t="inlineStr">
         <is>
           <t>Development Team and QA Lead</t>
         </is>
       </c>
-      <c r="L4" s="6" t="inlineStr">
+      <c r="L4" s="20" t="inlineStr">
         <is>
           <t>Operational</t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="M4" s="20" t="inlineStr">
         <is>
           <t>Daily attendance &gt;90% and blockers resolved</t>
         </is>
       </c>
-      <c r="N4" s="6" t="inlineStr">
+      <c r="N4" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O4" s="6" t="inlineStr">
+      <c r="O4" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P4" s="6" t="inlineStr">
+      <c r="P4" s="20" t="inlineStr">
         <is>
           <t>Keep focused on impediments and coordination</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>COMM-004</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>Architecture Review</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>Technical Stakeholders</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>Technical design review and approval</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="21" t="inlineStr">
         <is>
           <t>Technical Meeting</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="21" t="inlineStr">
         <is>
           <t>Solution Architect</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="21" t="inlineStr">
         <is>
           <t>90 minutes</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>Architecture decisions, technical risks, design changes</t>
         </is>
       </c>
-      <c r="K5" s="7" t="inlineStr">
+      <c r="K5" s="21" t="inlineStr">
         <is>
           <t>Solution Architect and Technical Leads</t>
         </is>
       </c>
-      <c r="L5" s="7" t="inlineStr">
+      <c r="L5" s="21" t="inlineStr">
         <is>
           <t>Technical</t>
         </is>
       </c>
-      <c r="M5" s="7" t="inlineStr">
+      <c r="M5" s="21" t="inlineStr">
         <is>
           <t>Design decisions made and documented</t>
         </is>
       </c>
-      <c r="N5" s="7" t="inlineStr">
+      <c r="N5" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O5" s="7" t="inlineStr">
+      <c r="O5" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P5" s="7" t="inlineStr">
+      <c r="P5" s="21" t="inlineStr">
         <is>
           <t>Include architectural decision records (ADRs)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>COMM-005</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>Risk Review</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>Risk Management Team</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="20" t="inlineStr">
         <is>
           <t>Risk assessment and mitigation planning</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr">
         <is>
           <t>Risk Meeting</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="20" t="inlineStr">
         <is>
           <t>Risk Manager</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="20" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="20" t="inlineStr">
         <is>
           <t>45 minutes</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="20" t="inlineStr">
         <is>
           <t>New risks, mitigation status, risk escalation</t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="20" t="inlineStr">
         <is>
           <t>Project Manager and Risk Committee</t>
         </is>
       </c>
-      <c r="L6" s="6" t="inlineStr">
+      <c r="L6" s="20" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="M6" s="20" t="inlineStr">
         <is>
           <t>Risk register updated and mitigations on track</t>
         </is>
       </c>
-      <c r="N6" s="6" t="inlineStr">
+      <c r="N6" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O6" s="6" t="inlineStr">
+      <c r="O6" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P6" s="6" t="inlineStr">
+      <c r="P6" s="20" t="inlineStr">
         <is>
           <t>Focus on high and critical risks</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>COMM-006</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>User Feedback</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="21" t="inlineStr">
         <is>
           <t>Business Users</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>User requirements validation and feedback</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="21" t="inlineStr">
         <is>
           <t>Workshop Session</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>Workshop invitation</t>
         </is>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>120 minutes</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="21" t="inlineStr">
         <is>
           <t>Requirements review, prototype feedback, acceptance criteria</t>
         </is>
       </c>
-      <c r="K7" s="7" t="inlineStr">
+      <c r="K7" s="21" t="inlineStr">
         <is>
           <t>Business Stakeholders and End Users</t>
         </is>
       </c>
-      <c r="L7" s="7" t="inlineStr">
+      <c r="L7" s="21" t="inlineStr">
         <is>
           <t>Business</t>
         </is>
       </c>
-      <c r="M7" s="7" t="inlineStr">
+      <c r="M7" s="21" t="inlineStr">
         <is>
           <t>User sign-off on requirements and prototypes</t>
         </is>
       </c>
-      <c r="N7" s="7" t="inlineStr">
+      <c r="N7" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O7" s="7" t="inlineStr">
+      <c r="O7" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P7" s="7" t="inlineStr">
+      <c r="P7" s="21" t="inlineStr">
         <is>
           <t>Include hands-on demonstrations and feedback</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>COMM-007</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>Sprint Review</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>Development Team</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t>Sprint progress and demo</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="20" t="inlineStr">
         <is>
           <t>Demo Meeting</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="20" t="inlineStr">
         <is>
           <t>Development Team Lead</t>
         </is>
       </c>
-      <c r="H8" s="6" t="inlineStr">
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t>Video conference</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="20" t="inlineStr">
         <is>
           <t>60 minutes</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="20" t="inlineStr">
         <is>
           <t>Sprint achievements, demo, retrospective feedback</t>
         </is>
       </c>
-      <c r="K8" s="6" t="inlineStr">
+      <c r="K8" s="20" t="inlineStr">
         <is>
           <t>Development Team and Product Owner</t>
         </is>
       </c>
-      <c r="L8" s="6" t="inlineStr">
+      <c r="L8" s="20" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="20" t="inlineStr">
         <is>
           <t>Sprint goals achieved and feedback incorporated</t>
         </is>
       </c>
-      <c r="N8" s="6" t="inlineStr">
+      <c r="N8" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O8" s="6" t="inlineStr">
+      <c r="O8" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="P8" s="20" t="inlineStr">
         <is>
           <t>Include live demonstration of working features</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>COMM-008</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>Vendor Coordination</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
         <is>
           <t>External Vendors</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Vendor progress and integration coordination</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="21" t="inlineStr">
         <is>
           <t>Vendor Call</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
         <is>
           <t>Integration Specialist</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>Conference call</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="21" t="inlineStr">
         <is>
           <t>45 minutes</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="21" t="inlineStr">
         <is>
           <t>Vendor deliverables, integration progress, issues</t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr">
+      <c r="K9" s="21" t="inlineStr">
         <is>
           <t>Vendor Representatives and Technical Lead</t>
         </is>
       </c>
-      <c r="L9" s="7" t="inlineStr">
+      <c r="L9" s="21" t="inlineStr">
         <is>
           <t>Vendor</t>
         </is>
       </c>
-      <c r="M9" s="7" t="inlineStr">
+      <c r="M9" s="21" t="inlineStr">
         <is>
           <t>Vendor commitments met and issues resolved</t>
         </is>
       </c>
-      <c r="N9" s="7" t="inlineStr">
+      <c r="N9" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O9" s="7" t="inlineStr">
+      <c r="O9" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P9" s="7" t="inlineStr">
+      <c r="P9" s="21" t="inlineStr">
         <is>
           <t>Track vendor SLAs and deliverables</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>COMM-009</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Quality Review</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>Quality Assurance Team</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t>Test progress and quality metrics</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="20" t="inlineStr">
         <is>
           <t>QA Meeting</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="20" t="inlineStr">
         <is>
           <t>QA Lead</t>
         </is>
       </c>
-      <c r="H10" s="6" t="inlineStr">
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
         <is>
           <t>45 minutes</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="20" t="inlineStr">
         <is>
           <t>Test execution status, defect metrics, quality gates</t>
         </is>
       </c>
-      <c r="K10" s="6" t="inlineStr">
+      <c r="K10" s="20" t="inlineStr">
         <is>
           <t>QA Team and Development Lead</t>
         </is>
       </c>
-      <c r="L10" s="6" t="inlineStr">
+      <c r="L10" s="20" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="20" t="inlineStr">
         <is>
           <t>Quality gates met and defects within tolerance</t>
         </is>
       </c>
-      <c r="N10" s="6" t="inlineStr">
+      <c r="N10" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O10" s="6" t="inlineStr">
+      <c r="O10" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P10" s="6" t="inlineStr">
+      <c r="P10" s="20" t="inlineStr">
         <is>
           <t>Include test coverage and defect trend analysis</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>COMM-010</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Change Control</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="21" t="inlineStr">
         <is>
           <t>Change Control Board</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>Change request review and approval</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
         <is>
           <t>As Needed</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="21" t="inlineStr">
         <is>
           <t>Change Meeting</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>Change Manager</t>
         </is>
       </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>60 minutes</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="J11" s="21" t="inlineStr">
         <is>
           <t>Change requests, impact assessment, approval decisions</t>
         </is>
       </c>
-      <c r="K11" s="7" t="inlineStr">
+      <c r="K11" s="21" t="inlineStr">
         <is>
           <t>Change Control Board Members</t>
         </is>
       </c>
-      <c r="L11" s="7" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="M11" s="7" t="inlineStr">
+      <c r="M11" s="21" t="inlineStr">
         <is>
           <t>Change requests processed within SLA</t>
         </is>
       </c>
-      <c r="N11" s="7" t="inlineStr">
+      <c r="N11" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O11" s="7" t="inlineStr">
+      <c r="O11" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P11" s="7" t="inlineStr">
+      <c r="P11" s="21" t="inlineStr">
         <is>
           <t>Follow formal change management process</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>COMM-011</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Training Update</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>Training Stakeholders</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t>Training progress and readiness</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>Training Call</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" s="20" t="inlineStr">
         <is>
           <t>Training Manager</t>
         </is>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="H12" s="20" t="inlineStr">
         <is>
           <t>Conference call</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="20" t="inlineStr">
         <is>
           <t>30 minutes</t>
         </is>
       </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="J12" s="20" t="inlineStr">
         <is>
           <t>Training development, delivery schedule, readiness assessment</t>
         </is>
       </c>
-      <c r="K12" s="6" t="inlineStr">
+      <c r="K12" s="20" t="inlineStr">
         <is>
           <t>Training Team and Business Managers</t>
         </is>
       </c>
-      <c r="L12" s="6" t="inlineStr">
+      <c r="L12" s="20" t="inlineStr">
         <is>
           <t>Operational</t>
         </is>
       </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="M12" s="20" t="inlineStr">
         <is>
           <t>Training materials ready and delivery on schedule</t>
         </is>
       </c>
-      <c r="N12" s="6" t="inlineStr">
+      <c r="N12" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O12" s="6" t="inlineStr">
+      <c r="O12" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P12" s="6" t="inlineStr">
+      <c r="P12" s="20" t="inlineStr">
         <is>
           <t>Include training effectiveness measurements</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="21" t="inlineStr">
         <is>
           <t>COMM-012</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>Security Review</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="21" t="inlineStr">
         <is>
           <t>Security Team</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>Security compliance and risk assessment</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="21" t="inlineStr">
         <is>
           <t>Security Meeting</t>
         </is>
       </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>Security Architect</t>
         </is>
       </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="H13" s="21" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>60 minutes</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>Security assessments, compliance status, vulnerabilities</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr">
+      <c r="K13" s="21" t="inlineStr">
         <is>
           <t>Security Team and Compliance Officer</t>
         </is>
       </c>
-      <c r="L13" s="7" t="inlineStr">
+      <c r="L13" s="21" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="M13" s="7" t="inlineStr">
+      <c r="M13" s="21" t="inlineStr">
         <is>
           <t>Security requirements met and risks mitigated</t>
         </is>
       </c>
-      <c r="N13" s="7" t="inlineStr">
+      <c r="N13" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O13" s="7" t="inlineStr">
+      <c r="O13" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P13" s="7" t="inlineStr">
+      <c r="P13" s="21" t="inlineStr">
         <is>
           <t>Include penetration testing and compliance audits</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="20" t="inlineStr">
         <is>
           <t>COMM-013</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure Update</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure Team</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure readiness and performance</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure Call</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t>DevOps Engineer</t>
         </is>
       </c>
-      <c r="H14" s="6" t="inlineStr">
+      <c r="H14" s="20" t="inlineStr">
         <is>
           <t>Conference call</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
         <is>
           <t>30 minutes</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="20" t="inlineStr">
         <is>
           <t>Environment status, performance metrics, capacity planning</t>
         </is>
       </c>
-      <c r="K14" s="6" t="inlineStr">
+      <c r="K14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure Team and Operations Manager</t>
         </is>
       </c>
-      <c r="L14" s="6" t="inlineStr">
+      <c r="L14" s="20" t="inlineStr">
         <is>
           <t>Technical</t>
         </is>
       </c>
-      <c r="M14" s="6" t="inlineStr">
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>Infrastructure ready and performance targets met</t>
         </is>
       </c>
-      <c r="N14" s="6" t="inlineStr">
+      <c r="N14" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O14" s="6" t="inlineStr">
+      <c r="O14" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P14" s="6" t="inlineStr">
+      <c r="P14" s="20" t="inlineStr">
         <is>
           <t>Include capacity planning and monitoring metrics</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="21" t="inlineStr">
         <is>
           <t>COMM-014</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="21" t="inlineStr">
         <is>
           <t>Business Readiness</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="21" t="inlineStr">
         <is>
           <t>Business Stakeholders</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="21" t="inlineStr">
         <is>
           <t>Business readiness and change management</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="21" t="inlineStr">
         <is>
           <t>Business Meeting</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="21" t="inlineStr">
         <is>
           <t>Change Manager</t>
         </is>
       </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="H15" s="21" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
         <is>
           <t>45 minutes</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="21" t="inlineStr">
         <is>
           <t>Change readiness, training completion, support preparation</t>
         </is>
       </c>
-      <c r="K15" s="7" t="inlineStr">
+      <c r="K15" s="21" t="inlineStr">
         <is>
           <t>Business Managers and End Users</t>
         </is>
       </c>
-      <c r="L15" s="7" t="inlineStr">
+      <c r="L15" s="21" t="inlineStr">
         <is>
           <t>Business</t>
         </is>
       </c>
-      <c r="M15" s="7" t="inlineStr">
+      <c r="M15" s="21" t="inlineStr">
         <is>
           <t>Business readiness criteria met and users prepared</t>
         </is>
       </c>
-      <c r="N15" s="7" t="inlineStr">
+      <c r="N15" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O15" s="7" t="inlineStr">
+      <c r="O15" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P15" s="7" t="inlineStr">
+      <c r="P15" s="21" t="inlineStr">
         <is>
           <t>Include user adoption and change readiness metrics</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>COMM-015</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>Go-Live Preparation</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>Go-Live Team</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t>Go-live planning and readiness validation</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>Daily (2 weeks before)</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="20" t="inlineStr">
         <is>
           <t>Go-Live Meeting</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G16" s="20" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H16" s="6" t="inlineStr">
+      <c r="H16" s="20" t="inlineStr">
         <is>
           <t>Video conference</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="I16" s="20" t="inlineStr">
         <is>
           <t>30 minutes</t>
         </is>
       </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="J16" s="20" t="inlineStr">
         <is>
           <t>Go-live checklist, readiness validation, contingency planning</t>
         </is>
       </c>
-      <c r="K16" s="6" t="inlineStr">
+      <c r="K16" s="20" t="inlineStr">
         <is>
           <t>All Team Leads and Operations Manager</t>
         </is>
       </c>
-      <c r="L16" s="6" t="inlineStr">
+      <c r="L16" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="M16" s="6" t="inlineStr">
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>Go-live criteria met and contingency plans ready</t>
         </is>
       </c>
-      <c r="N16" s="6" t="inlineStr">
+      <c r="N16" s="20" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="O16" s="6" t="inlineStr">
+      <c r="O16" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P16" s="6" t="inlineStr">
+      <c r="P16" s="20" t="inlineStr">
         <is>
           <t>Intensive coordination before go-live event</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="21" t="inlineStr">
         <is>
           <t>COMM-016</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="21" t="inlineStr">
         <is>
           <t>Post-Implementation</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="21" t="inlineStr">
         <is>
           <t>Project Team</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>Post-implementation review and lessons learned</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="21" t="inlineStr">
         <is>
           <t>Monthly (3 months)</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="F17" s="21" t="inlineStr">
         <is>
           <t>Review Meeting</t>
         </is>
       </c>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="G17" s="21" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H17" s="7" t="inlineStr">
+      <c r="H17" s="21" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I17" s="7" t="inlineStr">
+      <c r="I17" s="21" t="inlineStr">
         <is>
           <t>90 minutes</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="J17" s="21" t="inlineStr">
         <is>
           <t>Performance review, lessons learned, optimization opportunities</t>
         </is>
       </c>
-      <c r="K17" s="7" t="inlineStr">
+      <c r="K17" s="21" t="inlineStr">
         <is>
           <t>Core Project Team and Business Stakeholders</t>
         </is>
       </c>
-      <c r="L17" s="7" t="inlineStr">
+      <c r="L17" s="21" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="M17" s="7" t="inlineStr">
+      <c r="M17" s="21" t="inlineStr">
         <is>
           <t>Lessons captured and improvement actions identified</t>
         </is>
       </c>
-      <c r="N17" s="7" t="inlineStr">
+      <c r="N17" s="21" t="inlineStr">
         <is>
           <t>Planned</t>
         </is>
       </c>
-      <c r="O17" s="7" t="inlineStr">
+      <c r="O17" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P17" s="7" t="inlineStr">
+      <c r="P17" s="21" t="inlineStr">
         <is>
           <t>Include benefits realization and user satisfaction</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>COMM-017</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>Issue Escalation</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="20" t="inlineStr">
         <is>
           <t>Issue Resolution Team</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="20" t="inlineStr">
         <is>
           <t>Critical issue communication and resolution</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>As Needed</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="20" t="inlineStr">
         <is>
           <t>Emergency Call</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="G18" s="20" t="inlineStr">
         <is>
           <t>Issue Owner</t>
         </is>
       </c>
-      <c r="H18" s="6" t="inlineStr">
+      <c r="H18" s="20" t="inlineStr">
         <is>
           <t>Emergency notification</t>
         </is>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="20" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="J18" s="20" t="inlineStr">
         <is>
           <t>Issue description, impact assessment, resolution actions</t>
         </is>
       </c>
-      <c r="K18" s="6" t="inlineStr">
+      <c r="K18" s="20" t="inlineStr">
         <is>
           <t>Incident Response Team and Management</t>
         </is>
       </c>
-      <c r="L18" s="6" t="inlineStr">
+      <c r="L18" s="20" t="inlineStr">
         <is>
           <t>Emergency</t>
         </is>
       </c>
-      <c r="M18" s="6" t="inlineStr">
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>Issue resolved within SLA and communication timely</t>
         </is>
       </c>
-      <c r="N18" s="6" t="inlineStr">
+      <c r="N18" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O18" s="6" t="inlineStr">
+      <c r="O18" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P18" s="6" t="inlineStr">
+      <c r="P18" s="20" t="inlineStr">
         <is>
           <t>Follow incident management procedures</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="21" t="inlineStr">
         <is>
           <t>COMM-018</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="21" t="inlineStr">
         <is>
           <t>Stakeholder Briefing</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="21" t="inlineStr">
         <is>
           <t>All Stakeholders</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>General project updates and milestone communication</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="21" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="21" t="inlineStr">
         <is>
           <t>All-Hands Meeting</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="G19" s="21" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H19" s="7" t="inlineStr">
+      <c r="H19" s="21" t="inlineStr">
         <is>
           <t>Town hall meeting</t>
         </is>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="21" t="inlineStr">
         <is>
           <t>45 minutes</t>
         </is>
       </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="J19" s="21" t="inlineStr">
         <is>
           <t>Project progress, upcoming milestones, recognition</t>
         </is>
       </c>
-      <c r="K19" s="7" t="inlineStr">
+      <c r="K19" s="21" t="inlineStr">
         <is>
           <t>All Project Stakeholders</t>
         </is>
       </c>
-      <c r="L19" s="7" t="inlineStr">
+      <c r="L19" s="21" t="inlineStr">
         <is>
           <t>Informational</t>
         </is>
       </c>
-      <c r="M19" s="7" t="inlineStr">
+      <c r="M19" s="21" t="inlineStr">
         <is>
           <t>Stakeholder engagement and awareness maintained</t>
         </is>
       </c>
-      <c r="N19" s="7" t="inlineStr">
+      <c r="N19" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O19" s="7" t="inlineStr">
+      <c r="O19" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P19" s="7" t="inlineStr">
+      <c r="P19" s="21" t="inlineStr">
         <is>
           <t>Include project achievements and team recognition</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>COMM-019</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>Technical Deep Dive</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>Technical Teams</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="20" t="inlineStr">
         <is>
           <t>Technical knowledge sharing and problem solving</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="20" t="inlineStr">
         <is>
           <t>As Needed</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="20" t="inlineStr">
         <is>
           <t>Technical Session</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="G20" s="20" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="H20" s="6" t="inlineStr">
+      <c r="H20" s="20" t="inlineStr">
         <is>
           <t>Meeting invitation</t>
         </is>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="20" t="inlineStr">
         <is>
           <t>90 minutes</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="J20" s="20" t="inlineStr">
         <is>
           <t>Technical challenges, solution design, knowledge transfer</t>
         </is>
       </c>
-      <c r="K20" s="6" t="inlineStr">
+      <c r="K20" s="20" t="inlineStr">
         <is>
           <t>Technical Team Members</t>
         </is>
       </c>
-      <c r="L20" s="6" t="inlineStr">
+      <c r="L20" s="20" t="inlineStr">
         <is>
           <t>Technical</t>
         </is>
       </c>
-      <c r="M20" s="6" t="inlineStr">
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>Technical issues resolved and knowledge shared</t>
         </is>
       </c>
-      <c r="N20" s="6" t="inlineStr">
+      <c r="N20" s="20" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O20" s="6" t="inlineStr">
+      <c r="O20" s="20" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P20" s="6" t="inlineStr">
+      <c r="P20" s="20" t="inlineStr">
         <is>
           <t>Include architectural decisions and best practices</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="21" t="inlineStr">
         <is>
           <t>COMM-020</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="21" t="inlineStr">
         <is>
           <t>Client Update</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="21" t="inlineStr">
         <is>
           <t>External Client</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="21" t="inlineStr">
         <is>
           <t>Client project status and milestone updates</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="21" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="F21" s="7" t="inlineStr">
+      <c r="F21" s="21" t="inlineStr">
         <is>
           <t>Client Call</t>
         </is>
       </c>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="G21" s="21" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
+      <c r="H21" s="21" t="inlineStr">
         <is>
           <t>Client meeting</t>
         </is>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="21" t="inlineStr">
         <is>
           <t>45 minutes</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="21" t="inlineStr">
         <is>
           <t>Progress update, milestone status, next steps</t>
         </is>
       </c>
-      <c r="K21" s="7" t="inlineStr">
+      <c r="K21" s="21" t="inlineStr">
         <is>
           <t>Client Stakeholders and Account Manager</t>
         </is>
       </c>
-      <c r="L21" s="7" t="inlineStr">
+      <c r="L21" s="21" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
-      <c r="M21" s="7" t="inlineStr">
+      <c r="M21" s="21" t="inlineStr">
         <is>
           <t>Client satisfaction maintained and expectations managed</t>
         </is>
       </c>
-      <c r="N21" s="7" t="inlineStr">
+      <c r="N21" s="21" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
-      <c r="O21" s="7" t="inlineStr">
+      <c r="O21" s="21" t="inlineStr">
         <is>
           <t>[DATE]</t>
         </is>
       </c>
-      <c r="P21" s="7" t="inlineStr">
+      <c r="P21" s="21" t="inlineStr">
         <is>
           <t>Professional client communication with clear next steps</t>
         </is>
@@ -2369,6 +2518,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P21"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>